--- a/data/trans_orig/P25C$parches_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25C$parches_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878317C3-748A-4EAF-AF48-5E0BC567536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91207DB-0105-496A-9801-E32C960978CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A297B6BD-2C64-492D-8012-D2657FF8CAE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5746CDD9-8B37-4856-9E67-C3A48F59E0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="215">
-  <si>
-    <t>Población según método de dejar de fumar en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="220">
+  <si>
+    <t>Población según método de dejar de fumar (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,13 +65,13 @@
     <t>Ayuda del Centro de Salud (parches, pastillas)</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>5,92%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -83,601 +83,616 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>Ayuda del Centro de Salud (charlas, cursos)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>Ayuda del servicio médico de empresa</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Acupuntura, homeopatía, ...</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>Por mi cuenta, sin ayuda específica</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>Por mi cuenta, con chicles, parches u otros productos farmacéuticos</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>Otra forma</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>Ayuda del Centro de Salud (charlas, cursos)</t>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>Ayuda del servicio médico de empresa</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Acupuntura, homeopatía, ...</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>Por mi cuenta, sin ayuda específica</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>Por mi cuenta, con chicles, parches u otros productos farmacéuticos</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>Otra forma</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1092,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC79A891-F455-4A6B-934F-5F904E5B7DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2C5C47-45FD-4626-AAFB-F2BBC503347B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1219,40 +1234,40 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -1264,31 +1279,31 @@
         <v>14</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -1413,31 +1428,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1446,46 +1461,46 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -1494,49 +1509,49 @@
         <v>13</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1545,31 +1560,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1578,31 +1593,31 @@
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1611,66 +1626,66 @@
         <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1679,37 +1694,37 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
@@ -1718,58 +1733,58 @@
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1778,31 +1793,31 @@
         <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1811,31 +1826,31 @@
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1844,31 +1859,31 @@
         <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1879,31 +1894,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1912,76 +1927,76 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>188</v>
@@ -1990,19 +2005,19 @@
         <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2011,31 +2026,31 @@
         <v>36</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2044,31 +2059,31 @@
         <v>46</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2077,36 +2092,36 @@
         <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
